--- a/experiments/node/few_shot/nodes_3shot_1/ans.xlsx
+++ b/experiments/node/few_shot/nodes_3shot_1/ans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinsz\Desktop\NLP_project\03code\IDExtraction\experiments\node\few_shot\nodes_3shot_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE42059-DD5B-49B0-BCC2-6FE64D6BB2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1DFECD-A7CE-4559-8EC6-E80CD8FD733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5355" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F105" sqref="B105:F105"/>
+      <selection activeCell="B107" sqref="B107:F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4393,6 +4393,50 @@
         <v>0.91747572815533984</v>
       </c>
     </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f>_xlfn.STDEV.S(B2:B104)</f>
+        <v>0.18425225622202196</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:F106" si="1">_xlfn.STDEV.S(C2:C104)</f>
+        <v>0.21846764526129081</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0.27849662099996858</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0.1991478769551458</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0.20462222272942729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f>B106/SQRT(103)*1.96</f>
+        <v>3.558363195418391E-2</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:F107" si="2">C106/SQRT(103)*1.96</f>
+        <v>4.219146317268186E-2</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>5.3784531410054383E-2</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>3.8460341834240394E-2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>3.9517572335598522E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
